--- a/data/trans_dic/P24_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con mareos con bastante o mucha frecuencia</t>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,21</t>
+          <t>0,53; 5,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,01</t>
+          <t>0,98; 6,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,45</t>
+          <t>1,17; 7,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,32</t>
+          <t>1,41; 7,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,24</t>
+          <t>2,24; 8,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,9</t>
+          <t>2,47; 8,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 10,2</t>
+          <t>4,14; 10,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,43</t>
+          <t>4,06; 11,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,25</t>
+          <t>5,55; 14,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,74</t>
+          <t>9,59; 20,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,91</t>
+          <t>1,93; 5,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,51</t>
+          <t>3,02; 7,64</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 7,91</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 9,01</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 14,01</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,46</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,4</t>
+          <t>1,18; 7,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 13,34</t>
+          <t>5,7; 22,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 8,45</t>
+          <t>2,1; 9,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,94</t>
+          <t>3,54; 12,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 11,66</t>
+          <t>3,27; 11,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,81</t>
+          <t>2,44; 11,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 14,14</t>
+          <t>6,71; 16,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,18</t>
+          <t>3,01; 10,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,57</t>
+          <t>11,15; 25,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,61</t>
+          <t>2,27; 7,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,43</t>
+          <t>2,29; 7,4</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 15,58</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 8,17</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 17,09</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>4,1%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,59%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,51</t>
+          <t>0,0; 21,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,42</t>
+          <t>0,0; 12,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,54</t>
+          <t>0,0; 18,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 14,85</t>
+          <t>0,0; 20,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,12</t>
+          <t>0,0; 15,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 20,26</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 13,75</t>
+          <t>0,0; 18,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 9,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 8,77</t>
+          <t>1,98; 20,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,96</t>
+          <t>0,0; 8,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 8,06</t>
+          <t>0,0; 9,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 12,23</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,35</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 15,21</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,44</t>
+          <t>0,59; 3,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,98</t>
+          <t>1,46; 4,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,41</t>
+          <t>3,76; 11,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,99</t>
+          <t>2,41; 6,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,46</t>
+          <t>3,73; 9,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,07</t>
+          <t>3,52; 8,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,31</t>
+          <t>3,92; 8,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,59</t>
+          <t>5,98; 11,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,56</t>
+          <t>4,5; 10,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,72</t>
+          <t>11,09; 19,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,61</t>
+          <t>2,42; 5,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,22</t>
+          <t>3,13; 6,22</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 9,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 7,63</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>8,3; 13,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6567</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11419</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11396</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12729</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26122</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20395</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35328</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29854</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36075</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>80463</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26962</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46747</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>41249</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>48804</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>106585</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1935; 18294</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4228; 26405</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4297; 26786</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5367; 27262</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11536; 46271</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10775; 36605</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21089; 55037</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17016; 49875</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22528; 57718</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53571; 112579</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15483; 45174</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28395; 71721</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24118; 62135</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>31307; 70922</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>73375; 150482</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5153</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11453</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33200</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14701</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30439</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22850</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23595</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35628</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20066</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74088</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28002</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35048</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>68829</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>34766</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>104527</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16949</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4229; 25300</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18133; 71719</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6779; 30304</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14604; 52702</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11433; 40232</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10368; 46795</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22472; 55463</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10071; 35324</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48308; 109528</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14883; 47875</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17963; 58047</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>45361; 101825</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>20228; 53725</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>72969; 144528</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6422</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8831</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6036</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6602</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>15254</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21624</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9595</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16177</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23305</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12914</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10531</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14796</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2201; 22522</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14493</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20157</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1762; 19706</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15729</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4385; 34601</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11720</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26340</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>46540</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>32004</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>62983</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>47545</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>61491</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>70139</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>56140</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>163382</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59265</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>87831</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>116680</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>88144</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>226365</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4455; 26819</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13002; 44429</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>28709; 87844</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19008; 52298</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38990; 94428</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30542; 72668</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>40573; 89515</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49984; 94621</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>37026; 82430</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>122301; 209874</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39354; 84210</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>60394; 119744</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>87378; 156313</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>63978; 123096</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>178279; 281385</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
